--- a/extra/work_log.xlsx
+++ b/extra/work_log.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agurguta\Google Drive\Study Notes\Python\LotoGamesPython\extra\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\awwk\Pers\pers_dev\lotopy\extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94E73E0-95ED-440C-8EAA-66A3C6111A76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A266F1FF-9996-4B18-9E04-963E1DCB60E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>Task</t>
   </si>
@@ -112,6 +112,18 @@
   </si>
   <si>
     <t>Include Email Id in email subject</t>
+  </si>
+  <si>
+    <t>Setup Testing Environment</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Set new Result</t>
+  </si>
+  <si>
+    <t>Setup new CSVDataBridge</t>
   </si>
 </sst>
 </file>
@@ -429,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,6 +711,33 @@
         <v>10</v>
       </c>
     </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/extra/work_log.xlsx
+++ b/extra/work_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\awwk\Pers\pers_dev\lotopy\extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A266F1FF-9996-4B18-9E04-963E1DCB60E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F3D445-FE8E-4E60-ABAF-5E1CCF41D089}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
   <si>
     <t>Task</t>
   </si>
@@ -120,10 +120,19 @@
     <t>Testing</t>
   </si>
   <si>
-    <t>Set new Result</t>
-  </si>
-  <si>
     <t>Setup new CSVDataBridge</t>
+  </si>
+  <si>
+    <t>Implement ResultSet object</t>
+  </si>
+  <si>
+    <t>Set new result framework</t>
+  </si>
+  <si>
+    <t>Implement HTML print for Results/sets</t>
+  </si>
+  <si>
+    <t>Change Email to send html formats</t>
   </si>
 </sst>
 </file>
@@ -441,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,18 +733,75 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
       </c>
       <c r="C19">
-        <v>0.5</v>
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/extra/work_log.xlsx
+++ b/extra/work_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\awwk\Pers\pers_dev\lotopy\extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F3D445-FE8E-4E60-ABAF-5E1CCF41D089}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A19B2654-4CF1-46FB-AFC7-74F8C4D3C705}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
   <si>
     <t>Task</t>
   </si>
@@ -42,9 +43,6 @@
     <t>Find a way to assign a game id</t>
   </si>
   <si>
-    <t>CsvDataBridge</t>
-  </si>
-  <si>
     <t>Time Estimate</t>
   </si>
   <si>
@@ -120,9 +118,6 @@
     <t>Testing</t>
   </si>
   <si>
-    <t>Setup new CSVDataBridge</t>
-  </si>
-  <si>
     <t>Implement ResultSet object</t>
   </si>
   <si>
@@ -133,6 +128,15 @@
   </si>
   <si>
     <t>Change Email to send html formats</t>
+  </si>
+  <si>
+    <t>DataBridgeCSV</t>
+  </si>
+  <si>
+    <t>Setup new DataBridgeCSV</t>
+  </si>
+  <si>
+    <t>Implement connectors object</t>
   </si>
 </sst>
 </file>
@@ -450,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,13 +476,13 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -495,7 +499,7 @@
         <v>1.2</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -503,7 +507,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -511,11 +515,11 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
       <c r="C4">
         <v>0.5</v>
       </c>
@@ -523,12 +527,12 @@
         <v>0.5</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -540,15 +544,15 @@
         <v>0.5</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="C6">
         <v>0.5</v>
@@ -557,12 +561,12 @@
         <v>0.1</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -574,15 +578,15 @@
         <v>0.2</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
         <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -590,11 +594,11 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
       <c r="C9">
         <v>0.5</v>
       </c>
@@ -602,15 +606,15 @@
         <v>0.5</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>0.5</v>
@@ -619,29 +623,29 @@
         <v>0.2</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>1.5</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -649,10 +653,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="C13">
         <v>0.3</v>
@@ -660,38 +664,38 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
         <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <v>0.5</v>
@@ -700,15 +704,15 @@
         <v>0.5</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17">
         <v>0.5</v>
@@ -717,15 +721,15 @@
         <v>0.5</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
         <v>29</v>
-      </c>
-      <c r="B18" t="s">
-        <v>30</v>
       </c>
       <c r="C18">
         <v>0.5</v>
@@ -733,7 +737,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -745,12 +749,12 @@
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -762,12 +766,12 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -779,15 +783,15 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -796,12 +800,41 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/extra/work_log.xlsx
+++ b/extra/work_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\awwk\Pers\pers_dev\lotopy\extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A19B2654-4CF1-46FB-AFC7-74F8C4D3C705}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B431B009-418A-46C3-B2B8-209199D03522}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
   <si>
     <t>Task</t>
   </si>
@@ -137,6 +137,15 @@
   </si>
   <si>
     <t>Implement connectors object</t>
+  </si>
+  <si>
+    <t>New objects to define wining combinations</t>
+  </si>
+  <si>
+    <t>New object to compare 2 results and determine wining combination</t>
+  </si>
+  <si>
+    <t>ResultComparer</t>
   </si>
 </sst>
 </file>
@@ -454,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,6 +846,28 @@
         <v>9</v>
       </c>
     </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
